--- a/pred_ohlcv/54_21/2019-11-20 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 FAB ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>3206545.960065234</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2905427.180465234</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5640865.419465235</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5640865.419465235</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5089260.302731901</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4777607.250031902</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2887453.403131901</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2887453.403131901</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3765914.849031901</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4526021.886531902</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4228529.903131901</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3866910.565431901</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3866910.565431901</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5202944.6229319</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5262366.513031901</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>6096545.097331901</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5485268.541231901</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5618596.90069984</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>8376167.903895669</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9571388.082295669</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8619025.069824241</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>8238522.121024241</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4204784.404779797</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2225095.971479798</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-26181150.26561832</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-25724912.68841832</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-25747370.66191832</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-25725195.94601832</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-25725195.94601832</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-25775724.18711832</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-25816302.69771832</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-26001523.88731832</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-26084294.58231832</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-25515210.53921832</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-24459552.04300836</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-24043243.49010836</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-24027847.73330836</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-24027255.73330836</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-24253234.23360836</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-25367327.58760836</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-25316767.46440836</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-25153787.14910837</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-25152880.33620837</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-25144577.61430836</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-25145672.82080837</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-25146502.55530836</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-25145607.42930837</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-25146389.87810837</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-25117893.81570837</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-25117841.81570837</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-25117789.81570837</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-25248956.62850837</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-25243906.62850837</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-25242418.56070837</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-25493081.48770836</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-25489347.83100836</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-25488681.83100836</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-25511939.00520836</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-25717568.45080836</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-25717568.45080836</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-25739985.55348128</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-25593654.37208128</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-25593654.37208128</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-25616419.00728128</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-25616419.00728128</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-25208887.83168128</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-25589054.54998128</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-26496069.38878128</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-26496124.38878128</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-26496124.38878128</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-26348832.63788128</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-26760100.78638128</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-25984073.37838128</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-25963705.37838128</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-26196916.43358128</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-26146109.58418128</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-26146109.58418128</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-26143072.17158128</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-26143021.17158128</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-26368774.57098128</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-26368722.57098128</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-26365512.83268128</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-26681681.50158128</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-26849283.24578128</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-25773920.49248128</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-26164162.91198128</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-26164162.91198128</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-26133594.46908128</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-26135645.46908128</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-26135645.46908128</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-26042239.95968128</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-26042794.95968128</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-26035105.78588128</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-26284369.09996219</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-26630843.37386218</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-26502451.73066219</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-26124832.85828635</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-26070841.32198635</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-26013391.37588635</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-26013114.25138636</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-26135247.74838636</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-26051949.97138636</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-26108044.81393791</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-26088017.23179877</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-25698816.80013228</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-25822159.58253228</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-25821950.83573228</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-20352176.11385413</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-18437790.2093982</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 FAB ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>3206545.960065234</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2905427.180465234</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5640865.419465235</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5640865.419465235</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5089260.302731901</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4777607.250031902</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2887453.403131901</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2887453.403131901</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3765914.849031901</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4526021.886531902</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4228529.903131901</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3866910.565431901</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3866910.565431901</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5202944.6229319</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>6096545.097331901</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5114914.17549984</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5180989.48849984</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>7874427.833395668</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>8376167.903895669</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9571388.082295669</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8619025.069824241</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>8238522.121024241</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4204784.404779797</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2225095.971479798</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2820835.750779798</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1959863.241179798</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-26181150.26561832</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-25724912.68841832</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-25747370.66191832</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-25725195.94601832</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-25725195.94601832</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-25775724.18711832</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-25816302.69771832</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-26001523.88731832</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-26084294.58231832</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-25529707.45641832</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-25515210.53921832</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-24459552.04300836</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-24043243.49010836</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-24027847.73330836</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-24027255.73330836</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-24253234.23360836</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-25316767.46440836</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-25520937.16540836</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-25153787.14910837</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-25152880.33620837</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-25144577.61430836</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-25145672.82080837</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-25146502.55530836</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-25145607.42930837</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-25146389.87810837</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-25117893.81570837</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-25117841.81570837</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-25117789.81570837</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-25119591.43350837</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-25171567.23980837</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-25170643.23710837</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-25248956.62850837</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-25242418.56070837</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-25493081.48770836</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-25489347.83100836</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-25488681.83100836</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-25511939.00520836</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-25717568.45080836</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-25717568.45080836</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-25715899.44178128</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-25739985.55348128</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-25602712.34128128</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-25602661.32078128</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-25602508.87888128</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-25593654.37208128</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-25593654.37208128</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-25616419.00728128</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-25616419.00728128</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-25208887.83168128</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-25589054.54998128</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-26496069.38878128</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-26496124.38878128</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-26496124.38878128</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-26348832.63788128</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-26760100.78638128</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-25984073.37838128</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-25963705.37838128</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-26196916.43358128</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-26146109.58418128</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-26146109.58418128</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-26143072.17158128</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-26143021.17158128</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-26368774.57098128</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-26368722.57098128</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-26365512.83268128</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-26681681.50158128</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-26797112.46988128</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-25773920.49248128</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-26164162.91198128</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-26164162.91198128</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-26133594.46908128</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-26135645.46908128</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-26135645.46908128</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-26042239.95968128</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-26042794.95968128</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-26035105.78588128</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-26434353.10078128</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-26523449.41378128</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-26322076.25946219</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-26284072.09996219</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-26419473.14326219</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-26710514.84966218</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-26629287.22666219</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-26630843.37386218</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-26502451.73066219</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-26125564.85828635</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-26142946.23718635</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-26142946.23718635</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-26070841.32198635</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-26013391.37588635</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-26013114.25138636</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-26135247.74838636</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-25979923.82573228</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-25979923.82573228</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-25979923.82573228</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-25984811.74423228</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-25984811.74423228</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-25984811.74423228</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-25973178.73573228</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-25973229.73573228</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-25937512.41163228</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-25937254.10073228</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-25698816.80013228</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-25822159.58253228</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-25821950.83573228</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-20352176.11385413</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-18437790.2093982</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
